--- a/Code/Results/Cases/Case_3_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000868833124639</v>
+        <v>1.030850055578532</v>
       </c>
       <c r="D2">
-        <v>1.022427184858476</v>
+        <v>1.039857862803707</v>
       </c>
       <c r="E2">
-        <v>1.016728320378893</v>
+        <v>1.040413663790888</v>
       </c>
       <c r="F2">
-        <v>1.026606016970852</v>
+        <v>1.051178108451574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043961105722873</v>
+        <v>1.033239771132998</v>
       </c>
       <c r="J2">
-        <v>1.023023588560787</v>
+        <v>1.035989025708236</v>
       </c>
       <c r="K2">
-        <v>1.03358267108993</v>
+        <v>1.042641858123046</v>
       </c>
       <c r="L2">
-        <v>1.027959420484643</v>
+        <v>1.043196081642828</v>
       </c>
       <c r="M2">
-        <v>1.037706725743505</v>
+        <v>1.053930331545584</v>
       </c>
       <c r="N2">
-        <v>1.01152861710453</v>
+        <v>1.015975833862661</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004911324234454</v>
+        <v>1.031720252409871</v>
       </c>
       <c r="D3">
-        <v>1.025453005154405</v>
+        <v>1.040530652899418</v>
       </c>
       <c r="E3">
-        <v>1.020056901559913</v>
+        <v>1.041182124979617</v>
       </c>
       <c r="F3">
-        <v>1.030246120420377</v>
+        <v>1.052018592578164</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044776371659356</v>
+        <v>1.033354785234799</v>
       </c>
       <c r="J3">
-        <v>1.025268991170212</v>
+        <v>1.036501254296195</v>
       </c>
       <c r="K3">
-        <v>1.035770247481605</v>
+        <v>1.043125315135837</v>
       </c>
       <c r="L3">
-        <v>1.030439424628885</v>
+        <v>1.043775071598247</v>
       </c>
       <c r="M3">
-        <v>1.040506087667097</v>
+        <v>1.054583338220683</v>
       </c>
       <c r="N3">
-        <v>1.012287907935024</v>
+        <v>1.016147445345857</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007479406163297</v>
+        <v>1.032284044796518</v>
       </c>
       <c r="D4">
-        <v>1.027377220864972</v>
+        <v>1.040966413693967</v>
       </c>
       <c r="E4">
-        <v>1.022177274340417</v>
+        <v>1.041680369225398</v>
       </c>
       <c r="F4">
-        <v>1.032564079363281</v>
+        <v>1.052563452405082</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04528380445566</v>
+        <v>1.033427986529348</v>
       </c>
       <c r="J4">
-        <v>1.026693703907007</v>
+        <v>1.036832775102355</v>
       </c>
       <c r="K4">
-        <v>1.037156084535567</v>
+        <v>1.043437883382169</v>
       </c>
       <c r="L4">
-        <v>1.032015209205807</v>
+        <v>1.04415005322024</v>
       </c>
       <c r="M4">
-        <v>1.0422847500103</v>
+        <v>1.055006239063886</v>
       </c>
       <c r="N4">
-        <v>1.012769455436456</v>
+        <v>1.016258462200681</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008547975586023</v>
+        <v>1.032521233165976</v>
       </c>
       <c r="D5">
-        <v>1.02817830834802</v>
+        <v>1.041149706380773</v>
       </c>
       <c r="E5">
-        <v>1.023060911053175</v>
+        <v>1.041890068310819</v>
       </c>
       <c r="F5">
-        <v>1.033529853074099</v>
+        <v>1.052792751399173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045492390781983</v>
+        <v>1.033458467479665</v>
       </c>
       <c r="J5">
-        <v>1.027286076720501</v>
+        <v>1.036972163035423</v>
       </c>
       <c r="K5">
-        <v>1.037731755109539</v>
+        <v>1.043569223233221</v>
       </c>
       <c r="L5">
-        <v>1.032670927158371</v>
+        <v>1.044307774580904</v>
       </c>
       <c r="M5">
-        <v>1.04302487740455</v>
+        <v>1.055184111549561</v>
       </c>
       <c r="N5">
-        <v>1.012969618661875</v>
+        <v>1.016305126682336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008726755233967</v>
+        <v>1.032561068063292</v>
       </c>
       <c r="D6">
-        <v>1.028312360005739</v>
+        <v>1.041180487772208</v>
       </c>
       <c r="E6">
-        <v>1.023208828767195</v>
+        <v>1.041925291566497</v>
       </c>
       <c r="F6">
-        <v>1.033691508281271</v>
+        <v>1.052831265721213</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045527137547786</v>
+        <v>1.033463568171356</v>
       </c>
       <c r="J6">
-        <v>1.027385158106507</v>
+        <v>1.036995567817923</v>
       </c>
       <c r="K6">
-        <v>1.037828010792825</v>
+        <v>1.043591271987507</v>
       </c>
       <c r="L6">
-        <v>1.032780635042146</v>
+        <v>1.044334261286912</v>
       </c>
       <c r="M6">
-        <v>1.04314870699509</v>
+        <v>1.055213982057104</v>
       </c>
       <c r="N6">
-        <v>1.0130030949341</v>
+        <v>1.016312961429442</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007493727398592</v>
+        <v>1.032287213452894</v>
       </c>
       <c r="D7">
-        <v>1.027387955614352</v>
+        <v>1.040968862473737</v>
       </c>
       <c r="E7">
-        <v>1.022189111751352</v>
+        <v>1.041683170305093</v>
       </c>
       <c r="F7">
-        <v>1.03257701790521</v>
+        <v>1.052566515369205</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045286610119922</v>
+        <v>1.03342839496894</v>
       </c>
       <c r="J7">
-        <v>1.026701644831759</v>
+        <v>1.036834637547183</v>
       </c>
       <c r="K7">
-        <v>1.037163803706951</v>
+        <v>1.043439638604308</v>
       </c>
       <c r="L7">
-        <v>1.032023997189055</v>
+        <v>1.044152160391845</v>
       </c>
       <c r="M7">
-        <v>1.042294669307647</v>
+        <v>1.055008615472952</v>
       </c>
       <c r="N7">
-        <v>1.012772138907929</v>
+        <v>1.016259085761894</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002245107767942</v>
+        <v>1.031143993301843</v>
       </c>
       <c r="D8">
-        <v>1.023456882439345</v>
+        <v>1.040085147165547</v>
       </c>
       <c r="E8">
-        <v>1.01786030078218</v>
+        <v>1.040673161006613</v>
       </c>
       <c r="F8">
-        <v>1.027844120397918</v>
+        <v>1.051461943605221</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044240835463275</v>
+        <v>1.033278892995551</v>
       </c>
       <c r="J8">
-        <v>1.02378838407005</v>
+        <v>1.036162119525475</v>
       </c>
       <c r="K8">
-        <v>1.034328219867258</v>
+        <v>1.042805297829701</v>
       </c>
       <c r="L8">
-        <v>1.028803657880558</v>
+        <v>1.043391683483018</v>
       </c>
       <c r="M8">
-        <v>1.038659685150137</v>
+        <v>1.054150942286393</v>
       </c>
       <c r="N8">
-        <v>1.011787280695285</v>
+        <v>1.016033836120499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9926140890978982</v>
+        <v>1.029135052822174</v>
       </c>
       <c r="D9">
-        <v>1.016261753842741</v>
+        <v>1.038531230908694</v>
       </c>
       <c r="E9">
-        <v>1.009965064684193</v>
+        <v>1.03890112364454</v>
       </c>
       <c r="F9">
-        <v>1.019205011949856</v>
+        <v>1.049523372469711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042240644493218</v>
+        <v>1.033006133728351</v>
       </c>
       <c r="J9">
-        <v>1.018430386206646</v>
+        <v>1.034977685545998</v>
       </c>
       <c r="K9">
-        <v>1.029096392181173</v>
+        <v>1.041685573535219</v>
       </c>
       <c r="L9">
-        <v>1.022898508449101</v>
+        <v>1.042054266536998</v>
       </c>
       <c r="M9">
-        <v>1.031994000450863</v>
+        <v>1.052642457290749</v>
       </c>
       <c r="N9">
-        <v>1.009974301165009</v>
+        <v>1.015636729995198</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9859111547758728</v>
+        <v>1.027799590175084</v>
       </c>
       <c r="D10">
-        <v>1.011270018848105</v>
+        <v>1.037497617633991</v>
       </c>
       <c r="E10">
-        <v>1.004505402016047</v>
+        <v>1.037725070565595</v>
       </c>
       <c r="F10">
-        <v>1.01322618193402</v>
+        <v>1.048236370478044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040796222138274</v>
+        <v>1.032818070021963</v>
       </c>
       <c r="J10">
-        <v>1.01469512486968</v>
+        <v>1.034188562270421</v>
       </c>
       <c r="K10">
-        <v>1.025438727999489</v>
+        <v>1.040937873916829</v>
       </c>
       <c r="L10">
-        <v>1.018793783740105</v>
+        <v>1.041164516967543</v>
       </c>
       <c r="M10">
-        <v>1.027360670404976</v>
+        <v>1.051638812162824</v>
       </c>
       <c r="N10">
-        <v>1.008709466220846</v>
+        <v>1.015371895135244</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9829357283139815</v>
+        <v>1.02722224830699</v>
       </c>
       <c r="D11">
-        <v>1.009058787008188</v>
+        <v>1.037050627793609</v>
       </c>
       <c r="E11">
-        <v>1.002090867904679</v>
+        <v>1.037217107989884</v>
       </c>
       <c r="F11">
-        <v>1.010580885443324</v>
+        <v>1.047680384964509</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040143221805549</v>
+        <v>1.032735168586319</v>
       </c>
       <c r="J11">
-        <v>1.013036044410933</v>
+        <v>1.033846997778998</v>
       </c>
       <c r="K11">
-        <v>1.023811866268717</v>
+        <v>1.040613840861686</v>
       </c>
       <c r="L11">
-        <v>1.016973460946726</v>
+        <v>1.040779705379985</v>
       </c>
       <c r="M11">
-        <v>1.025305982793722</v>
+        <v>1.051204720718871</v>
       </c>
       <c r="N11">
-        <v>1.008147485120547</v>
+        <v>1.01525720163446</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9818190035084157</v>
+        <v>1.027007937953928</v>
       </c>
       <c r="D12">
-        <v>1.008229640255635</v>
+        <v>1.036884683611713</v>
       </c>
       <c r="E12">
-        <v>1.001186066132193</v>
+        <v>1.037028621673934</v>
       </c>
       <c r="F12">
-        <v>1.009589432820555</v>
+        <v>1.047474063732747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039896416063567</v>
+        <v>1.032704155329147</v>
       </c>
       <c r="J12">
-        <v>1.012413256913022</v>
+        <v>1.033720146511567</v>
       </c>
       <c r="K12">
-        <v>1.023200853685716</v>
+        <v>1.040493440787289</v>
       </c>
       <c r="L12">
-        <v>1.016290578209889</v>
+        <v>1.04063683917815</v>
       </c>
       <c r="M12">
-        <v>1.024535191932464</v>
+        <v>1.051043555657891</v>
       </c>
       <c r="N12">
-        <v>1.007936503935037</v>
+        <v>1.015214597102883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9820590752265494</v>
+        <v>1.027053901886175</v>
       </c>
       <c r="D13">
-        <v>1.008407853181924</v>
+        <v>1.03692027520112</v>
       </c>
       <c r="E13">
-        <v>1.001380514237178</v>
+        <v>1.037069043837614</v>
       </c>
       <c r="F13">
-        <v>1.009802510826111</v>
+        <v>1.04751831141111</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039949551039936</v>
+        <v>1.032710817721566</v>
       </c>
       <c r="J13">
-        <v>1.012547146973464</v>
+        <v>1.033747355568236</v>
       </c>
       <c r="K13">
-        <v>1.023332226448453</v>
+        <v>1.040519268788792</v>
       </c>
       <c r="L13">
-        <v>1.016437368288426</v>
+        <v>1.04066748127419</v>
       </c>
       <c r="M13">
-        <v>1.024700877807536</v>
+        <v>1.051078122652103</v>
       </c>
       <c r="N13">
-        <v>1.007981862788994</v>
+        <v>1.015223736013965</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9828436577739521</v>
+        <v>1.027204530478837</v>
       </c>
       <c r="D14">
-        <v>1.008990410435592</v>
+        <v>1.037036908994882</v>
       </c>
       <c r="E14">
-        <v>1.002016240728103</v>
+        <v>1.037201523691972</v>
       </c>
       <c r="F14">
-        <v>1.010499115002718</v>
+        <v>1.047663326366097</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040122908186105</v>
+        <v>1.032732609504311</v>
       </c>
       <c r="J14">
-        <v>1.012984699441444</v>
+        <v>1.033836511777909</v>
       </c>
       <c r="K14">
-        <v>1.023761498455115</v>
+        <v>1.040603889357047</v>
       </c>
       <c r="L14">
-        <v>1.016917152697215</v>
+        <v>1.040767894579604</v>
       </c>
       <c r="M14">
-        <v>1.025242425655895</v>
+        <v>1.051191397208027</v>
       </c>
       <c r="N14">
-        <v>1.008130091499301</v>
+        <v>1.015253679973865</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9833255215921897</v>
+        <v>1.027297356340588</v>
       </c>
       <c r="D15">
-        <v>1.009348300209518</v>
+        <v>1.037108782608188</v>
       </c>
       <c r="E15">
-        <v>1.002406870214944</v>
+        <v>1.037283174612699</v>
       </c>
       <c r="F15">
-        <v>1.010927128050166</v>
+        <v>1.047752700969891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040229152293132</v>
+        <v>1.032746007012384</v>
       </c>
       <c r="J15">
-        <v>1.013253416232378</v>
+        <v>1.033891446681779</v>
       </c>
       <c r="K15">
-        <v>1.024025088330813</v>
+        <v>1.040656021654611</v>
       </c>
       <c r="L15">
-        <v>1.017211862728892</v>
+        <v>1.040829771844862</v>
       </c>
       <c r="M15">
-        <v>1.025575075952345</v>
+        <v>1.051261199498918</v>
       </c>
       <c r="N15">
-        <v>1.008221121034317</v>
+        <v>1.015272129151026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9861070395938023</v>
+        <v>1.027837926017876</v>
       </c>
       <c r="D16">
-        <v>1.011415695509895</v>
+        <v>1.037527295079665</v>
       </c>
       <c r="E16">
-        <v>1.004664553659714</v>
+        <v>1.037758809416023</v>
       </c>
       <c r="F16">
-        <v>1.013400519587632</v>
+        <v>1.048273296857723</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040838969608878</v>
+        <v>1.032823541032402</v>
       </c>
       <c r="J16">
-        <v>1.014804331743905</v>
+        <v>1.034211233653553</v>
       </c>
       <c r="K16">
-        <v>1.025545768774232</v>
+        <v>1.040959373268233</v>
       </c>
       <c r="L16">
-        <v>1.018913664043194</v>
+        <v>1.041190065374902</v>
       </c>
       <c r="M16">
-        <v>1.027495986679827</v>
+        <v>1.05166763192392</v>
       </c>
       <c r="N16">
-        <v>1.008746454387062</v>
+        <v>1.015379506621833</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9878318873566232</v>
+        <v>1.028177259114381</v>
       </c>
       <c r="D17">
-        <v>1.012698972018414</v>
+        <v>1.037789971239318</v>
       </c>
       <c r="E17">
-        <v>1.006066984075306</v>
+        <v>1.03805750555037</v>
       </c>
       <c r="F17">
-        <v>1.014936634877978</v>
+        <v>1.048600200987804</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041214037158372</v>
+        <v>1.032871783358359</v>
       </c>
       <c r="J17">
-        <v>1.015765834783963</v>
+        <v>1.034411863585831</v>
       </c>
       <c r="K17">
-        <v>1.026487946579535</v>
+        <v>1.041149585318473</v>
       </c>
       <c r="L17">
-        <v>1.019969466787764</v>
+        <v>1.041416191068389</v>
       </c>
       <c r="M17">
-        <v>1.028687743040679</v>
+        <v>1.051922709564143</v>
       </c>
       <c r="N17">
-        <v>1.009072093247866</v>
+        <v>1.015446857126168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9888309561660017</v>
+        <v>1.028375275249292</v>
       </c>
       <c r="D18">
-        <v>1.013442705102677</v>
+        <v>1.037943240817268</v>
       </c>
       <c r="E18">
-        <v>1.006880153942615</v>
+        <v>1.038231852958268</v>
       </c>
       <c r="F18">
-        <v>1.015827208690951</v>
+        <v>1.048791003434939</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041430156908608</v>
+        <v>1.032899780546418</v>
       </c>
       <c r="J18">
-        <v>1.016322659906127</v>
+        <v>1.034528900192628</v>
       </c>
       <c r="K18">
-        <v>1.027033365274521</v>
+        <v>1.041260506238819</v>
       </c>
       <c r="L18">
-        <v>1.020581174447363</v>
+        <v>1.041548130243797</v>
       </c>
       <c r="M18">
-        <v>1.02937822411597</v>
+        <v>1.052071539540712</v>
       </c>
       <c r="N18">
-        <v>1.009260659437298</v>
+        <v>1.015486139741689</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9891704406700185</v>
+        <v>1.028442808662358</v>
       </c>
       <c r="D19">
-        <v>1.013695497395838</v>
+        <v>1.037995511057271</v>
       </c>
       <c r="E19">
-        <v>1.007156612654306</v>
+        <v>1.038291321725851</v>
       </c>
       <c r="F19">
-        <v>1.016129964276089</v>
+        <v>1.048856083245587</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041503401837909</v>
+        <v>1.032909302801367</v>
       </c>
       <c r="J19">
-        <v>1.016511851729792</v>
+        <v>1.034568808742259</v>
       </c>
       <c r="K19">
-        <v>1.027218644576</v>
+        <v>1.041298322859485</v>
       </c>
       <c r="L19">
-        <v>1.02078905968075</v>
+        <v>1.041593125491792</v>
       </c>
       <c r="M19">
-        <v>1.029612880768501</v>
+        <v>1.052122294722991</v>
       </c>
       <c r="N19">
-        <v>1.009324725263846</v>
+        <v>1.015499533779357</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.987647556015357</v>
+        <v>1.028140842679909</v>
       </c>
       <c r="D20">
-        <v>1.012561785295085</v>
+        <v>1.037761782868965</v>
       </c>
       <c r="E20">
-        <v>1.005917020107701</v>
+        <v>1.038025445545363</v>
       </c>
       <c r="F20">
-        <v>1.0147723872542</v>
+        <v>1.048565114345416</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041174070936177</v>
+        <v>1.032866622069812</v>
       </c>
       <c r="J20">
-        <v>1.015663090578054</v>
+        <v>1.034390336584162</v>
       </c>
       <c r="K20">
-        <v>1.026387289579462</v>
+        <v>1.041129180101592</v>
       </c>
       <c r="L20">
-        <v>1.01985661771217</v>
+        <v>1.041391925371761</v>
       </c>
       <c r="M20">
-        <v>1.028560362064177</v>
+        <v>1.051895337221604</v>
       </c>
       <c r="N20">
-        <v>1.009037297962261</v>
+        <v>1.015439631236535</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826129403332248</v>
+        <v>1.027160170231974</v>
       </c>
       <c r="D21">
-        <v>1.008819079721726</v>
+        <v>1.037002560812295</v>
       </c>
       <c r="E21">
-        <v>1.001829257152762</v>
+        <v>1.037162506317457</v>
       </c>
       <c r="F21">
-        <v>1.010294230622126</v>
+        <v>1.04762061763458</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040071977149545</v>
+        <v>1.032726198434385</v>
       </c>
       <c r="J21">
-        <v>1.012856033669806</v>
+        <v>1.033810256906396</v>
       </c>
       <c r="K21">
-        <v>1.023635276262861</v>
+        <v>1.040578971795232</v>
       </c>
       <c r="L21">
-        <v>1.016776056373043</v>
+        <v>1.040738323420982</v>
       </c>
       <c r="M21">
-        <v>1.025083165395017</v>
+        <v>1.051158038567827</v>
       </c>
       <c r="N21">
-        <v>1.008086504307613</v>
+        <v>1.015244862282469</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9793805353082261</v>
+        <v>1.026544394025279</v>
       </c>
       <c r="D22">
-        <v>1.006420611248567</v>
+        <v>1.036525716378717</v>
       </c>
       <c r="E22">
-        <v>0.999213010700607</v>
+        <v>1.03662106322021</v>
       </c>
       <c r="F22">
-        <v>1.007427094526696</v>
+        <v>1.047027913197297</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039354383632395</v>
+        <v>1.032636636158596</v>
       </c>
       <c r="J22">
-        <v>1.011053193856327</v>
+        <v>1.033445659890074</v>
       </c>
       <c r="K22">
-        <v>1.021865938676525</v>
+        <v>1.040232804601601</v>
       </c>
       <c r="L22">
-        <v>1.014800074140651</v>
+        <v>1.040327783401285</v>
       </c>
       <c r="M22">
-        <v>1.022852841226539</v>
+        <v>1.050694909198325</v>
       </c>
       <c r="N22">
-        <v>1.007475716068418</v>
+        <v>1.015122390482339</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9811006322620123</v>
+        <v>1.026870751201319</v>
       </c>
       <c r="D23">
-        <v>1.007696487974049</v>
+        <v>1.036778451797512</v>
       </c>
       <c r="E23">
-        <v>1.000604426719731</v>
+        <v>1.036907985563699</v>
       </c>
       <c r="F23">
-        <v>1.008952040930518</v>
+        <v>1.047342008481855</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039737170657724</v>
+        <v>1.032684235197164</v>
       </c>
       <c r="J23">
-        <v>1.012012602563986</v>
+        <v>1.03363892765989</v>
       </c>
       <c r="K23">
-        <v>1.02280768676165</v>
+        <v>1.040416335649441</v>
       </c>
       <c r="L23">
-        <v>1.015851385187571</v>
+        <v>1.040545379509131</v>
       </c>
       <c r="M23">
-        <v>1.024039465191344</v>
+        <v>1.050940380612848</v>
       </c>
       <c r="N23">
-        <v>1.007800768248247</v>
+        <v>1.01518731615513</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9877308690240744</v>
+        <v>1.02815729742467</v>
       </c>
       <c r="D24">
-        <v>1.01262378882047</v>
+        <v>1.037774519810412</v>
       </c>
       <c r="E24">
-        <v>1.005984797313948</v>
+        <v>1.038039931701787</v>
       </c>
       <c r="F24">
-        <v>1.014846620395161</v>
+        <v>1.048580968103468</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041192138135335</v>
+        <v>1.032868954671987</v>
       </c>
       <c r="J24">
-        <v>1.015709528614436</v>
+        <v>1.03440006367094</v>
       </c>
       <c r="K24">
-        <v>1.026432784913647</v>
+        <v>1.041138400422976</v>
       </c>
       <c r="L24">
-        <v>1.019907622076908</v>
+        <v>1.041402889860148</v>
       </c>
       <c r="M24">
-        <v>1.028617934392738</v>
+        <v>1.051907705458394</v>
       </c>
       <c r="N24">
-        <v>1.009053024692152</v>
+        <v>1.015442896310629</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9951517499603589</v>
+        <v>1.029653743681105</v>
       </c>
       <c r="D25">
-        <v>1.018155104811959</v>
+        <v>1.038932552726979</v>
       </c>
       <c r="E25">
-        <v>1.012039490029026</v>
+        <v>1.039358310701113</v>
       </c>
       <c r="F25">
-        <v>1.021475702208888</v>
+        <v>1.050023600123247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042776904910963</v>
+        <v>1.033077748561849</v>
       </c>
       <c r="J25">
-        <v>1.0198433859728</v>
+        <v>1.035283807715871</v>
       </c>
       <c r="K25">
-        <v>1.030477975006654</v>
+        <v>1.041975269721681</v>
       </c>
       <c r="L25">
-        <v>1.02445373971856</v>
+        <v>1.042399699056034</v>
       </c>
       <c r="M25">
-        <v>1.033749538105222</v>
+        <v>1.053032089512081</v>
       </c>
       <c r="N25">
-        <v>1.010452591270012</v>
+        <v>1.015739410715238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030850055578532</v>
+        <v>1.000868833124639</v>
       </c>
       <c r="D2">
-        <v>1.039857862803707</v>
+        <v>1.022427184858477</v>
       </c>
       <c r="E2">
-        <v>1.040413663790888</v>
+        <v>1.016728320378893</v>
       </c>
       <c r="F2">
-        <v>1.051178108451574</v>
+        <v>1.026606016970852</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033239771132998</v>
+        <v>1.043961105722873</v>
       </c>
       <c r="J2">
-        <v>1.035989025708236</v>
+        <v>1.023023588560787</v>
       </c>
       <c r="K2">
-        <v>1.042641858123046</v>
+        <v>1.03358267108993</v>
       </c>
       <c r="L2">
-        <v>1.043196081642828</v>
+        <v>1.027959420484643</v>
       </c>
       <c r="M2">
-        <v>1.053930331545584</v>
+        <v>1.037706725743506</v>
       </c>
       <c r="N2">
-        <v>1.015975833862661</v>
+        <v>1.01152861710453</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031720252409871</v>
+        <v>1.004911324234455</v>
       </c>
       <c r="D3">
-        <v>1.040530652899418</v>
+        <v>1.025453005154405</v>
       </c>
       <c r="E3">
-        <v>1.041182124979617</v>
+        <v>1.020056901559913</v>
       </c>
       <c r="F3">
-        <v>1.052018592578164</v>
+        <v>1.030246120420377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033354785234799</v>
+        <v>1.044776371659357</v>
       </c>
       <c r="J3">
-        <v>1.036501254296195</v>
+        <v>1.025268991170212</v>
       </c>
       <c r="K3">
-        <v>1.043125315135837</v>
+        <v>1.035770247481605</v>
       </c>
       <c r="L3">
-        <v>1.043775071598247</v>
+        <v>1.030439424628885</v>
       </c>
       <c r="M3">
-        <v>1.054583338220683</v>
+        <v>1.040506087667097</v>
       </c>
       <c r="N3">
-        <v>1.016147445345857</v>
+        <v>1.012287907935025</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032284044796518</v>
+        <v>1.007479406163298</v>
       </c>
       <c r="D4">
-        <v>1.040966413693967</v>
+        <v>1.027377220864973</v>
       </c>
       <c r="E4">
-        <v>1.041680369225398</v>
+        <v>1.022177274340419</v>
       </c>
       <c r="F4">
-        <v>1.052563452405082</v>
+        <v>1.032564079363282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033427986529348</v>
+        <v>1.04528380445566</v>
       </c>
       <c r="J4">
-        <v>1.036832775102355</v>
+        <v>1.026693703907008</v>
       </c>
       <c r="K4">
-        <v>1.043437883382169</v>
+        <v>1.037156084535568</v>
       </c>
       <c r="L4">
-        <v>1.04415005322024</v>
+        <v>1.032015209205808</v>
       </c>
       <c r="M4">
-        <v>1.055006239063886</v>
+        <v>1.042284750010301</v>
       </c>
       <c r="N4">
-        <v>1.016258462200681</v>
+        <v>1.012769455436456</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032521233165976</v>
+        <v>1.008547975586023</v>
       </c>
       <c r="D5">
-        <v>1.041149706380773</v>
+        <v>1.02817830834802</v>
       </c>
       <c r="E5">
-        <v>1.041890068310819</v>
+        <v>1.023060911053175</v>
       </c>
       <c r="F5">
-        <v>1.052792751399173</v>
+        <v>1.033529853074098</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033458467479665</v>
+        <v>1.045492390781983</v>
       </c>
       <c r="J5">
-        <v>1.036972163035423</v>
+        <v>1.0272860767205</v>
       </c>
       <c r="K5">
-        <v>1.043569223233221</v>
+        <v>1.037731755109539</v>
       </c>
       <c r="L5">
-        <v>1.044307774580904</v>
+        <v>1.03267092715837</v>
       </c>
       <c r="M5">
-        <v>1.055184111549561</v>
+        <v>1.04302487740455</v>
       </c>
       <c r="N5">
-        <v>1.016305126682336</v>
+        <v>1.012969618661875</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032561068063292</v>
+        <v>1.008726755233966</v>
       </c>
       <c r="D6">
-        <v>1.041180487772208</v>
+        <v>1.028312360005738</v>
       </c>
       <c r="E6">
-        <v>1.041925291566497</v>
+        <v>1.023208828767195</v>
       </c>
       <c r="F6">
-        <v>1.052831265721213</v>
+        <v>1.03369150828127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033463568171356</v>
+        <v>1.045527137547785</v>
       </c>
       <c r="J6">
-        <v>1.036995567817923</v>
+        <v>1.027385158106506</v>
       </c>
       <c r="K6">
-        <v>1.043591271987507</v>
+        <v>1.037828010792825</v>
       </c>
       <c r="L6">
-        <v>1.044334261286912</v>
+        <v>1.032780635042146</v>
       </c>
       <c r="M6">
-        <v>1.055213982057104</v>
+        <v>1.04314870699509</v>
       </c>
       <c r="N6">
-        <v>1.016312961429442</v>
+        <v>1.0130030949341</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032287213452894</v>
+        <v>1.007493727398591</v>
       </c>
       <c r="D7">
-        <v>1.040968862473737</v>
+        <v>1.027387955614352</v>
       </c>
       <c r="E7">
-        <v>1.041683170305093</v>
+        <v>1.022189111751351</v>
       </c>
       <c r="F7">
-        <v>1.052566515369205</v>
+        <v>1.032577017905209</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03342839496894</v>
+        <v>1.045286610119922</v>
       </c>
       <c r="J7">
-        <v>1.036834637547183</v>
+        <v>1.026701644831758</v>
       </c>
       <c r="K7">
-        <v>1.043439638604308</v>
+        <v>1.03716380370695</v>
       </c>
       <c r="L7">
-        <v>1.044152160391845</v>
+        <v>1.032023997189055</v>
       </c>
       <c r="M7">
-        <v>1.055008615472952</v>
+        <v>1.042294669307646</v>
       </c>
       <c r="N7">
-        <v>1.016259085761894</v>
+        <v>1.012772138907928</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031143993301843</v>
+        <v>1.002245107767942</v>
       </c>
       <c r="D8">
-        <v>1.040085147165547</v>
+        <v>1.023456882439345</v>
       </c>
       <c r="E8">
-        <v>1.040673161006613</v>
+        <v>1.01786030078218</v>
       </c>
       <c r="F8">
-        <v>1.051461943605221</v>
+        <v>1.027844120397918</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033278892995551</v>
+        <v>1.044240835463276</v>
       </c>
       <c r="J8">
-        <v>1.036162119525475</v>
+        <v>1.02378838407005</v>
       </c>
       <c r="K8">
-        <v>1.042805297829701</v>
+        <v>1.034328219867258</v>
       </c>
       <c r="L8">
-        <v>1.043391683483018</v>
+        <v>1.028803657880558</v>
       </c>
       <c r="M8">
-        <v>1.054150942286393</v>
+        <v>1.038659685150136</v>
       </c>
       <c r="N8">
-        <v>1.016033836120499</v>
+        <v>1.011787280695284</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029135052822174</v>
+        <v>0.9926140890978984</v>
       </c>
       <c r="D9">
-        <v>1.038531230908694</v>
+        <v>1.016261753842742</v>
       </c>
       <c r="E9">
-        <v>1.03890112364454</v>
+        <v>1.009965064684193</v>
       </c>
       <c r="F9">
-        <v>1.049523372469711</v>
+        <v>1.019205011949856</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033006133728351</v>
+        <v>1.042240644493218</v>
       </c>
       <c r="J9">
-        <v>1.034977685545998</v>
+        <v>1.018430386206646</v>
       </c>
       <c r="K9">
-        <v>1.041685573535219</v>
+        <v>1.029096392181173</v>
       </c>
       <c r="L9">
-        <v>1.042054266536998</v>
+        <v>1.022898508449102</v>
       </c>
       <c r="M9">
-        <v>1.052642457290749</v>
+        <v>1.031994000450863</v>
       </c>
       <c r="N9">
-        <v>1.015636729995198</v>
+        <v>1.00997430116501</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027799590175084</v>
+        <v>0.9859111547758721</v>
       </c>
       <c r="D10">
-        <v>1.037497617633991</v>
+        <v>1.011270018848105</v>
       </c>
       <c r="E10">
-        <v>1.037725070565595</v>
+        <v>1.004505402016046</v>
       </c>
       <c r="F10">
-        <v>1.048236370478044</v>
+        <v>1.013226181934019</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032818070021963</v>
+        <v>1.040796222138274</v>
       </c>
       <c r="J10">
-        <v>1.034188562270421</v>
+        <v>1.014695124869679</v>
       </c>
       <c r="K10">
-        <v>1.040937873916829</v>
+        <v>1.025438727999489</v>
       </c>
       <c r="L10">
-        <v>1.041164516967543</v>
+        <v>1.018793783740104</v>
       </c>
       <c r="M10">
-        <v>1.051638812162824</v>
+        <v>1.027360670404975</v>
       </c>
       <c r="N10">
-        <v>1.015371895135244</v>
+        <v>1.008709466220845</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02722224830699</v>
+        <v>0.9829357283139809</v>
       </c>
       <c r="D11">
-        <v>1.037050627793609</v>
+        <v>1.009058787008188</v>
       </c>
       <c r="E11">
-        <v>1.037217107989884</v>
+        <v>1.002090867904679</v>
       </c>
       <c r="F11">
-        <v>1.047680384964509</v>
+        <v>1.010580885443324</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032735168586319</v>
+        <v>1.040143221805548</v>
       </c>
       <c r="J11">
-        <v>1.033846997778998</v>
+        <v>1.013036044410933</v>
       </c>
       <c r="K11">
-        <v>1.040613840861686</v>
+        <v>1.023811866268717</v>
       </c>
       <c r="L11">
-        <v>1.040779705379985</v>
+        <v>1.016973460946726</v>
       </c>
       <c r="M11">
-        <v>1.051204720718871</v>
+        <v>1.025305982793722</v>
       </c>
       <c r="N11">
-        <v>1.01525720163446</v>
+        <v>1.008147485120547</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027007937953928</v>
+        <v>0.9818190035084162</v>
       </c>
       <c r="D12">
-        <v>1.036884683611713</v>
+        <v>1.008229640255635</v>
       </c>
       <c r="E12">
-        <v>1.037028621673934</v>
+        <v>1.001186066132193</v>
       </c>
       <c r="F12">
-        <v>1.047474063732747</v>
+        <v>1.009589432820556</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032704155329147</v>
+        <v>1.039896416063568</v>
       </c>
       <c r="J12">
-        <v>1.033720146511567</v>
+        <v>1.012413256913022</v>
       </c>
       <c r="K12">
-        <v>1.040493440787289</v>
+        <v>1.023200853685717</v>
       </c>
       <c r="L12">
-        <v>1.04063683917815</v>
+        <v>1.01629057820989</v>
       </c>
       <c r="M12">
-        <v>1.051043555657891</v>
+        <v>1.024535191932465</v>
       </c>
       <c r="N12">
-        <v>1.015214597102883</v>
+        <v>1.007936503935037</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027053901886175</v>
+        <v>0.9820590752265494</v>
       </c>
       <c r="D13">
-        <v>1.03692027520112</v>
+        <v>1.008407853181924</v>
       </c>
       <c r="E13">
-        <v>1.037069043837614</v>
+        <v>1.001380514237177</v>
       </c>
       <c r="F13">
-        <v>1.04751831141111</v>
+        <v>1.00980251082611</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032710817721566</v>
+        <v>1.039949551039936</v>
       </c>
       <c r="J13">
-        <v>1.033747355568236</v>
+        <v>1.012547146973464</v>
       </c>
       <c r="K13">
-        <v>1.040519268788792</v>
+        <v>1.023332226448453</v>
       </c>
       <c r="L13">
-        <v>1.04066748127419</v>
+        <v>1.016437368288426</v>
       </c>
       <c r="M13">
-        <v>1.051078122652103</v>
+        <v>1.024700877807536</v>
       </c>
       <c r="N13">
-        <v>1.015223736013965</v>
+        <v>1.007981862788994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027204530478837</v>
+        <v>0.9828436577739521</v>
       </c>
       <c r="D14">
-        <v>1.037036908994882</v>
+        <v>1.008990410435592</v>
       </c>
       <c r="E14">
-        <v>1.037201523691972</v>
+        <v>1.002016240728104</v>
       </c>
       <c r="F14">
-        <v>1.047663326366097</v>
+        <v>1.010499115002718</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032732609504311</v>
+        <v>1.040122908186105</v>
       </c>
       <c r="J14">
-        <v>1.033836511777909</v>
+        <v>1.012984699441444</v>
       </c>
       <c r="K14">
-        <v>1.040603889357047</v>
+        <v>1.023761498455115</v>
       </c>
       <c r="L14">
-        <v>1.040767894579604</v>
+        <v>1.016917152697216</v>
       </c>
       <c r="M14">
-        <v>1.051191397208027</v>
+        <v>1.025242425655895</v>
       </c>
       <c r="N14">
-        <v>1.015253679973865</v>
+        <v>1.008130091499301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027297356340588</v>
+        <v>0.9833255215921902</v>
       </c>
       <c r="D15">
-        <v>1.037108782608188</v>
+        <v>1.009348300209518</v>
       </c>
       <c r="E15">
-        <v>1.037283174612699</v>
+        <v>1.002406870214944</v>
       </c>
       <c r="F15">
-        <v>1.047752700969891</v>
+        <v>1.010927128050166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032746007012384</v>
+        <v>1.040229152293132</v>
       </c>
       <c r="J15">
-        <v>1.033891446681779</v>
+        <v>1.013253416232379</v>
       </c>
       <c r="K15">
-        <v>1.040656021654611</v>
+        <v>1.024025088330813</v>
       </c>
       <c r="L15">
-        <v>1.040829771844862</v>
+        <v>1.017211862728892</v>
       </c>
       <c r="M15">
-        <v>1.051261199498918</v>
+        <v>1.025575075952345</v>
       </c>
       <c r="N15">
-        <v>1.015272129151026</v>
+        <v>1.008221121034318</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027837926017876</v>
+        <v>0.986107039593802</v>
       </c>
       <c r="D16">
-        <v>1.037527295079665</v>
+        <v>1.011415695509895</v>
       </c>
       <c r="E16">
-        <v>1.037758809416023</v>
+        <v>1.004664553659714</v>
       </c>
       <c r="F16">
-        <v>1.048273296857723</v>
+        <v>1.013400519587632</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032823541032402</v>
+        <v>1.040838969608878</v>
       </c>
       <c r="J16">
-        <v>1.034211233653553</v>
+        <v>1.014804331743905</v>
       </c>
       <c r="K16">
-        <v>1.040959373268233</v>
+        <v>1.025545768774232</v>
       </c>
       <c r="L16">
-        <v>1.041190065374902</v>
+        <v>1.018913664043194</v>
       </c>
       <c r="M16">
-        <v>1.05166763192392</v>
+        <v>1.027495986679826</v>
       </c>
       <c r="N16">
-        <v>1.015379506621833</v>
+        <v>1.008746454387062</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028177259114381</v>
+        <v>0.9878318873566234</v>
       </c>
       <c r="D17">
-        <v>1.037789971239318</v>
+        <v>1.012698972018415</v>
       </c>
       <c r="E17">
-        <v>1.03805750555037</v>
+        <v>1.006066984075306</v>
       </c>
       <c r="F17">
-        <v>1.048600200987804</v>
+        <v>1.014936634877978</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032871783358359</v>
+        <v>1.041214037158372</v>
       </c>
       <c r="J17">
-        <v>1.034411863585831</v>
+        <v>1.015765834783963</v>
       </c>
       <c r="K17">
-        <v>1.041149585318473</v>
+        <v>1.026487946579536</v>
       </c>
       <c r="L17">
-        <v>1.041416191068389</v>
+        <v>1.019969466787764</v>
       </c>
       <c r="M17">
-        <v>1.051922709564143</v>
+        <v>1.02868774304068</v>
       </c>
       <c r="N17">
-        <v>1.015446857126168</v>
+        <v>1.009072093247866</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028375275249292</v>
+        <v>0.9888309561660018</v>
       </c>
       <c r="D18">
-        <v>1.037943240817268</v>
+        <v>1.013442705102677</v>
       </c>
       <c r="E18">
-        <v>1.038231852958268</v>
+        <v>1.006880153942615</v>
       </c>
       <c r="F18">
-        <v>1.048791003434939</v>
+        <v>1.015827208690951</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032899780546418</v>
+        <v>1.041430156908607</v>
       </c>
       <c r="J18">
-        <v>1.034528900192628</v>
+        <v>1.016322659906128</v>
       </c>
       <c r="K18">
-        <v>1.041260506238819</v>
+        <v>1.027033365274521</v>
       </c>
       <c r="L18">
-        <v>1.041548130243797</v>
+        <v>1.020581174447363</v>
       </c>
       <c r="M18">
-        <v>1.052071539540712</v>
+        <v>1.02937822411597</v>
       </c>
       <c r="N18">
-        <v>1.015486139741689</v>
+        <v>1.009260659437298</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028442808662358</v>
+        <v>0.9891704406700189</v>
       </c>
       <c r="D19">
-        <v>1.037995511057271</v>
+        <v>1.013695497395838</v>
       </c>
       <c r="E19">
-        <v>1.038291321725851</v>
+        <v>1.007156612654306</v>
       </c>
       <c r="F19">
-        <v>1.048856083245587</v>
+        <v>1.01612996427609</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032909302801367</v>
+        <v>1.041503401837909</v>
       </c>
       <c r="J19">
-        <v>1.034568808742259</v>
+        <v>1.016511851729792</v>
       </c>
       <c r="K19">
-        <v>1.041298322859485</v>
+        <v>1.027218644576001</v>
       </c>
       <c r="L19">
-        <v>1.041593125491792</v>
+        <v>1.02078905968075</v>
       </c>
       <c r="M19">
-        <v>1.052122294722991</v>
+        <v>1.029612880768501</v>
       </c>
       <c r="N19">
-        <v>1.015499533779357</v>
+        <v>1.009324725263846</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028140842679909</v>
+        <v>0.9876475560153571</v>
       </c>
       <c r="D20">
-        <v>1.037761782868965</v>
+        <v>1.012561785295085</v>
       </c>
       <c r="E20">
-        <v>1.038025445545363</v>
+        <v>1.005917020107701</v>
       </c>
       <c r="F20">
-        <v>1.048565114345416</v>
+        <v>1.014772387254201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032866622069812</v>
+        <v>1.041174070936177</v>
       </c>
       <c r="J20">
-        <v>1.034390336584162</v>
+        <v>1.015663090578054</v>
       </c>
       <c r="K20">
-        <v>1.041129180101592</v>
+        <v>1.026387289579462</v>
       </c>
       <c r="L20">
-        <v>1.041391925371761</v>
+        <v>1.01985661771217</v>
       </c>
       <c r="M20">
-        <v>1.051895337221604</v>
+        <v>1.028560362064177</v>
       </c>
       <c r="N20">
-        <v>1.015439631236535</v>
+        <v>1.00903729796226</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027160170231974</v>
+        <v>0.9826129403332251</v>
       </c>
       <c r="D21">
-        <v>1.037002560812295</v>
+        <v>1.008819079721726</v>
       </c>
       <c r="E21">
-        <v>1.037162506317457</v>
+        <v>1.001829257152762</v>
       </c>
       <c r="F21">
-        <v>1.04762061763458</v>
+        <v>1.010294230622126</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032726198434385</v>
+        <v>1.040071977149545</v>
       </c>
       <c r="J21">
-        <v>1.033810256906396</v>
+        <v>1.012856033669806</v>
       </c>
       <c r="K21">
-        <v>1.040578971795232</v>
+        <v>1.023635276262861</v>
       </c>
       <c r="L21">
-        <v>1.040738323420982</v>
+        <v>1.016776056373043</v>
       </c>
       <c r="M21">
-        <v>1.051158038567827</v>
+        <v>1.025083165395017</v>
       </c>
       <c r="N21">
-        <v>1.015244862282469</v>
+        <v>1.008086504307613</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026544394025279</v>
+        <v>0.9793805353082261</v>
       </c>
       <c r="D22">
-        <v>1.036525716378717</v>
+        <v>1.006420611248567</v>
       </c>
       <c r="E22">
-        <v>1.03662106322021</v>
+        <v>0.9992130107006068</v>
       </c>
       <c r="F22">
-        <v>1.047027913197297</v>
+        <v>1.007427094526696</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032636636158596</v>
+        <v>1.039354383632395</v>
       </c>
       <c r="J22">
-        <v>1.033445659890074</v>
+        <v>1.011053193856327</v>
       </c>
       <c r="K22">
-        <v>1.040232804601601</v>
+        <v>1.021865938676524</v>
       </c>
       <c r="L22">
-        <v>1.040327783401285</v>
+        <v>1.014800074140651</v>
       </c>
       <c r="M22">
-        <v>1.050694909198325</v>
+        <v>1.022852841226539</v>
       </c>
       <c r="N22">
-        <v>1.015122390482339</v>
+        <v>1.007475716068418</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026870751201319</v>
+        <v>0.9811006322620121</v>
       </c>
       <c r="D23">
-        <v>1.036778451797512</v>
+        <v>1.007696487974049</v>
       </c>
       <c r="E23">
-        <v>1.036907985563699</v>
+        <v>1.000604426719731</v>
       </c>
       <c r="F23">
-        <v>1.047342008481855</v>
+        <v>1.008952040930518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032684235197164</v>
+        <v>1.039737170657724</v>
       </c>
       <c r="J23">
-        <v>1.03363892765989</v>
+        <v>1.012012602563985</v>
       </c>
       <c r="K23">
-        <v>1.040416335649441</v>
+        <v>1.02280768676165</v>
       </c>
       <c r="L23">
-        <v>1.040545379509131</v>
+        <v>1.015851385187571</v>
       </c>
       <c r="M23">
-        <v>1.050940380612848</v>
+        <v>1.024039465191344</v>
       </c>
       <c r="N23">
-        <v>1.01518731615513</v>
+        <v>1.007800768248247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02815729742467</v>
+        <v>0.9877308690240745</v>
       </c>
       <c r="D24">
-        <v>1.037774519810412</v>
+        <v>1.01262378882047</v>
       </c>
       <c r="E24">
-        <v>1.038039931701787</v>
+        <v>1.005984797313949</v>
       </c>
       <c r="F24">
-        <v>1.048580968103468</v>
+        <v>1.014846620395162</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032868954671987</v>
+        <v>1.041192138135335</v>
       </c>
       <c r="J24">
-        <v>1.03440006367094</v>
+        <v>1.015709528614436</v>
       </c>
       <c r="K24">
-        <v>1.041138400422976</v>
+        <v>1.026432784913647</v>
       </c>
       <c r="L24">
-        <v>1.041402889860148</v>
+        <v>1.019907622076908</v>
       </c>
       <c r="M24">
-        <v>1.051907705458394</v>
+        <v>1.028617934392739</v>
       </c>
       <c r="N24">
-        <v>1.015442896310629</v>
+        <v>1.009053024692152</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029653743681105</v>
+        <v>0.9951517499603587</v>
       </c>
       <c r="D25">
-        <v>1.038932552726979</v>
+        <v>1.018155104811958</v>
       </c>
       <c r="E25">
-        <v>1.039358310701113</v>
+        <v>1.012039490029025</v>
       </c>
       <c r="F25">
-        <v>1.050023600123247</v>
+        <v>1.021475702208887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033077748561849</v>
+        <v>1.042776904910963</v>
       </c>
       <c r="J25">
-        <v>1.035283807715871</v>
+        <v>1.0198433859728</v>
       </c>
       <c r="K25">
-        <v>1.041975269721681</v>
+        <v>1.030477975006654</v>
       </c>
       <c r="L25">
-        <v>1.042399699056034</v>
+        <v>1.02445373971856</v>
       </c>
       <c r="M25">
-        <v>1.053032089512081</v>
+        <v>1.033749538105222</v>
       </c>
       <c r="N25">
-        <v>1.015739410715238</v>
+        <v>1.010452591270012</v>
       </c>
     </row>
   </sheetData>
